--- a/Q1-lilii/Q2docente/Q2-Docente.xlsx
+++ b/Q1-lilii/Q2docente/Q2-Docente.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="25560" windowHeight="16340" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="25560" windowHeight="16340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q1-Gestor" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,8 +779,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -822,7 +838,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="51">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -840,6 +856,14 @@
     <cellStyle name="Hipervínculo" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -857,6 +881,14 @@
     <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1793,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EV11"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="BO10" sqref="BO10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2423,7 +2455,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3">
         <v>2</v>
@@ -2438,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3">
         <v>2</v>
@@ -2453,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R2" s="3">
         <v>2</v>
@@ -2468,7 +2500,7 @@
         <v>2</v>
       </c>
       <c r="V2" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W2" s="3">
         <v>2</v>
@@ -2483,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="AA2" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="3">
         <v>2</v>
@@ -2498,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="AF2" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="3">
         <v>2</v>
@@ -2881,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H3" s="3">
         <v>2</v>
@@ -2896,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -2911,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="Q3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R3" s="3">
         <v>2</v>
@@ -2926,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="V3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W3" s="3">
         <v>2</v>
@@ -2941,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="AA3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="3">
         <v>2</v>
@@ -2956,7 +2988,7 @@
         <v>2</v>
       </c>
       <c r="AF3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="3">
         <v>2</v>
@@ -2971,7 +3003,7 @@
         <v>2</v>
       </c>
       <c r="AK3" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="3">
         <v>2</v>
@@ -3339,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
@@ -3354,7 +3386,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M4" s="3">
         <v>2</v>
@@ -3369,7 +3401,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R4" s="3">
         <v>2</v>
@@ -3384,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="V4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W4" s="3">
         <v>2</v>
@@ -3399,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="AA4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="3">
         <v>2</v>
@@ -3414,7 +3446,7 @@
         <v>2</v>
       </c>
       <c r="AF4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="3">
         <v>2</v>
@@ -3429,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="AK4" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AL4" s="3">
         <v>2</v>
@@ -3797,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
         <v>2</v>
@@ -3812,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="L5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M5" s="3">
         <v>2</v>
@@ -3827,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="Q5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R5" s="3">
         <v>2</v>
@@ -3842,7 +3874,7 @@
         <v>2</v>
       </c>
       <c r="V5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W5" s="3">
         <v>2</v>
@@ -3857,7 +3889,7 @@
         <v>2</v>
       </c>
       <c r="AA5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="3">
         <v>2</v>
@@ -3872,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="AF5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="3">
         <v>2</v>
@@ -3887,7 +3919,7 @@
         <v>2</v>
       </c>
       <c r="AK5" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="3">
         <v>2</v>
@@ -4255,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
@@ -4270,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
         <v>2</v>
@@ -4285,7 +4317,7 @@
         <v>2</v>
       </c>
       <c r="Q6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R6" s="3">
         <v>2</v>
@@ -4300,7 +4332,7 @@
         <v>2</v>
       </c>
       <c r="V6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W6" s="3">
         <v>2</v>
@@ -4315,7 +4347,7 @@
         <v>2</v>
       </c>
       <c r="AA6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="3">
         <v>2</v>
@@ -4330,7 +4362,7 @@
         <v>2</v>
       </c>
       <c r="AF6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="3">
         <v>2</v>
@@ -4345,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="AK6" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="3">
         <v>2</v>
@@ -4713,7 +4745,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
         <v>2</v>
@@ -4728,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <v>2</v>
@@ -4743,7 +4775,7 @@
         <v>2</v>
       </c>
       <c r="Q7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R7" s="3">
         <v>2</v>
@@ -4758,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="V7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W7" s="3">
         <v>2</v>
@@ -4773,7 +4805,7 @@
         <v>2</v>
       </c>
       <c r="AA7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="3">
         <v>2</v>
@@ -4788,7 +4820,7 @@
         <v>2</v>
       </c>
       <c r="AF7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="3">
         <v>2</v>
@@ -4803,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="AK7" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="3">
         <v>2</v>
@@ -5171,7 +5203,7 @@
         <v>72</v>
       </c>
       <c r="G8" s="3">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -5186,7 +5218,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <v>2</v>
@@ -5201,7 +5233,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R8" s="3">
         <v>2</v>
@@ -5216,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W8" s="3">
         <v>2</v>
@@ -5231,7 +5263,7 @@
         <v>2</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="3">
         <v>2</v>
@@ -5246,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="AF8" s="3">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="AG8" s="3">
         <v>2</v>
@@ -5261,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="AL8" s="3">
         <v>2</v>
@@ -5629,7 +5661,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -5644,7 +5676,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
@@ -5659,7 +5691,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R9" s="3">
         <v>2</v>
@@ -5674,7 +5706,7 @@
         <v>2</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W9" s="3">
         <v>2</v>
@@ -5689,7 +5721,7 @@
         <v>2</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="3">
         <v>2</v>
@@ -5704,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="AF9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="3">
         <v>2</v>
@@ -5719,7 +5751,7 @@
         <v>2</v>
       </c>
       <c r="AK9" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="3">
         <v>2</v>
@@ -6087,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H10" s="3">
         <v>4</v>
@@ -6102,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <v>4</v>
@@ -6117,7 +6149,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="R10" s="3">
         <v>4</v>
@@ -6132,7 +6164,7 @@
         <v>4</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W10" s="3">
         <v>4</v>
@@ -6147,7 +6179,7 @@
         <v>4</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="3">
         <v>4</v>
@@ -6162,7 +6194,7 @@
         <v>4</v>
       </c>
       <c r="AF10" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="AG10" s="3">
         <v>4</v>
@@ -6177,7 +6209,7 @@
         <v>4</v>
       </c>
       <c r="AK10" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="AL10" s="3">
         <v>4</v>
@@ -6545,7 +6577,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
@@ -6560,7 +6592,7 @@
         <v>4</v>
       </c>
       <c r="L11" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="M11" s="3">
         <v>4</v>
@@ -6575,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="Q11" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="R11" s="3">
         <v>4</v>
@@ -6590,7 +6622,7 @@
         <v>4</v>
       </c>
       <c r="V11" s="3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W11" s="3">
         <v>4</v>
@@ -6605,7 +6637,7 @@
         <v>4</v>
       </c>
       <c r="AA11" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="AB11" s="3">
         <v>4</v>
@@ -6620,7 +6652,7 @@
         <v>4</v>
       </c>
       <c r="AF11" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="AG11" s="3">
         <v>4</v>
@@ -6635,7 +6667,7 @@
         <v>4</v>
       </c>
       <c r="AK11" s="3">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="AL11" s="3">
         <v>4</v>
@@ -6984,11 +7016,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:EV11">
-    <sortState ref="A2:LG11">
-      <sortCondition ref="B1:B11"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -7106,7 +7133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
